--- a/data/trans_dic/P25_8-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>16,46%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>20,76%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21,95%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,22</t>
+          <t>14,92; 21,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,98</t>
+          <t>12,07; 17,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 23,46</t>
+          <t>14,81; 22,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,53</t>
+          <t>17,26; 24,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,6</t>
+          <t>13,54; 19,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,54</t>
+          <t>17,8; 24,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 30,37</t>
+          <t>20,95; 27,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 23,91</t>
+          <t>15,91; 21,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,04</t>
+          <t>21,12; 27,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 18,61</t>
+          <t>25,02; 32,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,55</t>
+          <t>18,21; 23,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 20,72</t>
+          <t>22,72; 28,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 23,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 18,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 24,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 27,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 20,85</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 25,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>14,87%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>22,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,75%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,21%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>15,19%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>18,94%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>22,18%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>24,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,97</t>
+          <t>11,7; 19,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 17,89</t>
+          <t>10,33; 16,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,67</t>
+          <t>11,8; 18,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 25,57</t>
+          <t>14,42; 22,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,59</t>
+          <t>14,83; 25,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 19,75</t>
+          <t>13,36; 23,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,27; 27,51</t>
+          <t>16,39; 24,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 30,81</t>
+          <t>13,76; 19,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,84</t>
+          <t>19,76; 27,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,77</t>
+          <t>16,86; 24,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,73</t>
+          <t>19,49; 31,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,25</t>
+          <t>24,32; 37,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15,06; 20,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 17,31</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 21,74</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 22,28</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 26,1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 28,34</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>16,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,16%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>23,87%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23,62%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 23,82</t>
+          <t>10,8; 25,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 18,41</t>
+          <t>6,56; 16,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 27,08</t>
+          <t>12,83; 26,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>8,75; 23,03</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>11,17; 24,15</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,77; 35,92</t>
+          <t>11,41; 24,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>11,76; 23,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 35,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 33,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 21,4</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,69; 18,5</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>19,03; 29,18</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 22,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 18,18</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 29,45</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 26,68</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,62%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18,81%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,0%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>19,45%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,75</t>
+          <t>14,38; 18,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,24</t>
+          <t>11,58; 15,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,79</t>
+          <t>14,93; 19,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,9</t>
+          <t>16,38; 21,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,76</t>
+          <t>14,82; 19,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 19,49</t>
+          <t>17,88; 23,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,11</t>
+          <t>19,38; 24,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,53</t>
+          <t>15,75; 19,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,36</t>
+          <t>21,91; 26,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,16</t>
+          <t>22,64; 27,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 23,08</t>
+          <t>19,11; 24,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 21,22</t>
+          <t>24,2; 29,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 20,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 17,01</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18,94; 22,3</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 24,0</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 21,34</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 25,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>293748</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>238733</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>298408</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>340259</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37720</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48193</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>429423</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>339185</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>439827</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>516023</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49092</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60431</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>723171</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>577919</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>738234</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>856282</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>86812</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>108624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>246572; 348966</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>198814; 292568</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>242709; 367907</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>282914; 407323</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31041; 45546</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40634; 56705</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>377250; 488020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>290021; 392476</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>383583; 502801</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>451863; 592762</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43066; 55937</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53545; 67038</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>650581; 810364</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>508556; 644247</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>660723; 829284</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>764390; 958556</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>78517; 97111</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>98551; 118588</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>206790</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>179988</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>250021</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14360</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>277162</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>228985</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>319776</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>279181</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16069</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20711</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>483952</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>408973</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>522876</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>529202</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>30429</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>34007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>160001; 265096</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>142261; 233326</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>162487; 256528</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>199345; 309357</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10724; 18668</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9789; 17531</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>227614; 336314</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>188784; 270840</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>273096; 380628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>230258; 335440</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12657; 20273</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16273; 25284</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>415046; 563562</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>359208; 475899</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>451885; 599823</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>463177; 612270</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>25598; 35817</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>28815; 39737</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70412</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46815</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82015</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>62912</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70396</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68062</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114107</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>104677</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>140808</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>114877</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>196122</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>167589</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44872; 104544</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27720; 71355</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53690; 111731</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37002; 97374</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46719; 99532</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48179; 94716</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88186; 146696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75374; 139227</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>104228; 185487</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>86744; 151339</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>159053; 244537</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>124738; 222687</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>605.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>570950</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>465536</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>583522</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>653192</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52080</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61489</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>776981</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>636233</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>873709</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>899882</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65162</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81142</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1347931</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1101769</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1457232</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1553074</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>117242</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>142631</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>494013; 649896</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>399127; 531887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>512713; 681812</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>564252; 745142</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44677; 59843</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53915; 70653</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>697475; 868399</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>567881; 707742</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>791087; 970866</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>811416; 995986</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57607; 72503</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73238; 89278</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1237149; 1468081</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1010786; 1199505</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1334525; 1571357</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1426925; 1686763</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>107047; 128636</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>131396; 156097</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
